--- a/Textbooks, projects/Applied Math/labs/lab_6/ex_var/eex.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_6/ex_var/eex.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D784D391-550A-4647-83AC-9D67D8BD6E64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DCFFBD-B376-4BE4-BDB2-FFD52754E795}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="мкр" sheetId="1" r:id="rId1"/>
@@ -3084,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3180,11 +3180,11 @@
         <v>0.7</v>
       </c>
       <c r="B5">
-        <v>0.11355370255912611</v>
+        <v>0.11355370255918747</v>
       </c>
       <c r="C5">
         <f>(B5-B6)/$C$2</f>
-        <v>0.5</v>
+        <v>0.50000000000002343</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3192,15 +3192,15 @@
         <v>0.8</v>
       </c>
       <c r="B6">
-        <v>6.355370255912611E-2</v>
+        <v>6.3553702559185118E-2</v>
       </c>
       <c r="C6">
         <f>(B7-B5)/2/$C$2</f>
-        <v>-0.43892270141718054</v>
+        <v>-0.43892270141740836</v>
       </c>
       <c r="D6">
         <f>(B7-2*B6+B5)/$C$2^2</f>
-        <v>1.2215459716563888</v>
+        <v>1.2215459716523003</v>
       </c>
       <c r="E6">
         <f>1/A6</f>
@@ -3219,15 +3219,15 @@
         <v>0.9</v>
       </c>
       <c r="B7">
-        <v>2.5769162275689993E-2</v>
+        <v>2.5769162275705783E-2</v>
       </c>
       <c r="C7">
         <f>(B8-B6)/2/$C$2</f>
-        <v>-0.31776851279563051</v>
+        <v>-0.31776851279592555</v>
       </c>
       <c r="D7">
         <f>(B8-2*B7+B6)/$C$2^2</f>
-        <v>1.201537800774612</v>
+        <v>1.2015378007773549</v>
       </c>
       <c r="E7">
         <f>1/A7</f>
@@ -3250,31 +3250,31 @@
       </c>
       <c r="C8">
         <f>(B8-B7)/$C$2</f>
-        <v>-0.25769162275689994</v>
+        <v>-0.25769162275705781</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>B5</f>
-        <v>0.11355370255912611</v>
+        <v>0.11355370255918747</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>$D$2*B5+$E$2*C5-$F$2</f>
-        <v>0</v>
+        <v>2.3425705819590803E-14</v>
       </c>
       <c r="B11">
         <f>D6+E6*C6+F6*B6-G6</f>
-        <v>3.1653568655087838E-12</v>
+        <v>-1.0899059432745162E-12</v>
       </c>
       <c r="C11">
         <f>D7+E7*C7+F7*B7-G7</f>
-        <v>-2.4864554859505006E-12</v>
+        <v>-3.9634961979118088E-14</v>
       </c>
       <c r="D11">
         <f>$G$2*B8+$H$2*C8-I2</f>
-        <v>-1.4576916227568999</v>
+        <v>-1.4576916227570578</v>
       </c>
     </row>
   </sheetData>
@@ -3913,7 +3913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850697C5-F5B9-4A7C-8B9A-E4CBD2D42413}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
